--- a/result/zernike_15_moment_times_30_P.xlsx
+++ b/result/zernike_15_moment_times_30_P.xlsx
@@ -434,32 +434,32 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>1 K</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>2 K</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3K</t>
+          <t>3 K</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>4K</t>
+          <t>4 K</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>5 K</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>6 K</t>
         </is>
       </c>
     </row>
@@ -473,22 +473,22 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>1.832142353057861</v>
+        <v>1.466445922851562</v>
       </c>
       <c r="D2" t="n">
-        <v>3.236800909042358</v>
+        <v>2.850473642349243</v>
       </c>
       <c r="E2" t="n">
-        <v>5.771145343780518</v>
+        <v>5.23508882522583</v>
       </c>
       <c r="F2" t="n">
-        <v>9.31657075881958</v>
+        <v>8.552150964736938</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90281319618225</v>
+        <v>12.86164689064026</v>
       </c>
       <c r="H2" t="n">
-        <v>19.49137687683105</v>
+        <v>18.25946927070618</v>
       </c>
     </row>
     <row r="3">
@@ -501,22 +501,22 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>12.53907012939453</v>
+        <v>9.327999830245972</v>
       </c>
       <c r="D3" t="n">
-        <v>68.63656139373779</v>
+        <v>50.7988269329071</v>
       </c>
       <c r="E3" t="n">
-        <v>156.6966524124146</v>
+        <v>147.3149397373199</v>
       </c>
       <c r="F3" t="n">
-        <v>247.7969131469727</v>
+        <v>225.9710366725922</v>
       </c>
       <c r="G3" t="n">
-        <v>370.3171434402466</v>
+        <v>339.6071774959564</v>
       </c>
       <c r="H3" t="n">
-        <v>530.9734904766083</v>
+        <v>531.6823420524597</v>
       </c>
     </row>
   </sheetData>

--- a/result/zernike_15_moment_times_30_P.xlsx
+++ b/result/zernike_15_moment_times_30_P.xlsx
@@ -473,22 +473,22 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>1.466445922851562</v>
+        <v>1.449215412139893</v>
       </c>
       <c r="D2" t="n">
-        <v>2.850473642349243</v>
+        <v>2.833351612091064</v>
       </c>
       <c r="E2" t="n">
-        <v>5.23508882522583</v>
+        <v>5.210671901702881</v>
       </c>
       <c r="F2" t="n">
-        <v>8.552150964736938</v>
+        <v>8.545932531356812</v>
       </c>
       <c r="G2" t="n">
-        <v>12.86164689064026</v>
+        <v>12.82862401008606</v>
       </c>
       <c r="H2" t="n">
-        <v>18.25946927070618</v>
+        <v>18.07642531394958</v>
       </c>
     </row>
     <row r="3">
@@ -501,22 +501,22 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>9.327999830245972</v>
+        <v>12.71008324623108</v>
       </c>
       <c r="D3" t="n">
-        <v>50.7988269329071</v>
+        <v>44.30561327934265</v>
       </c>
       <c r="E3" t="n">
-        <v>147.3149397373199</v>
+        <v>128.8165812492371</v>
       </c>
       <c r="F3" t="n">
-        <v>225.9710366725922</v>
+        <v>225.488210439682</v>
       </c>
       <c r="G3" t="n">
-        <v>339.6071774959564</v>
+        <v>396.334016084671</v>
       </c>
       <c r="H3" t="n">
-        <v>531.6823420524597</v>
+        <v>496.3625257015228</v>
       </c>
     </row>
   </sheetData>
